--- a/data/doc/test-case/Test-Case.xlsx
+++ b/data/doc/test-case/Test-Case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/onggowahyudi/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A965F00-662B-C344-A8AF-99CA10075B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D681A50-9ADB-FE4F-A1A1-5EE1D290EE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="1140" windowWidth="28040" windowHeight="17180" xr2:uid="{4DB5A3AA-43BC-854A-9C28-F650384178B4}"/>
+    <workbookView xWindow="340" yWindow="1140" windowWidth="23120" windowHeight="20180" xr2:uid="{4DB5A3AA-43BC-854A-9C28-F650384178B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Case" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>NOT PASS, Human Review for High Risk person</t>
   </si>
   <si>
-    <t>PASS, ID NO capture as G456778AB</t>
-  </si>
-  <si>
     <t>Form Style A
 KYC_20250915_0001.pdf (Thailand)
 Metadata
@@ -149,6 +146,9 @@
       Non-Singaporean KYC Sample Form-GOOD-PromptInject.pdf
 Country: USA 
 Scenario: All form fields + ID fields completed, no missing data</t>
+  </si>
+  <si>
+    <t>NOT PASS, Contain string injection</t>
   </si>
 </sst>
 </file>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAE44B8-B559-4C46-A245-298B9EEB8A9A}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -576,12 +576,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -592,7 +592,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -603,7 +603,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -614,7 +614,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -625,7 +625,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -636,7 +636,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
@@ -647,7 +647,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -658,7 +658,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>5</v>
@@ -669,10 +669,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="204" x14ac:dyDescent="0.2">
@@ -680,10 +680,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
